--- a/Sprint 1/USBD04/Inserts/Dataset normalizado.xlsx
+++ b/Sprint 1/USBD04/Inserts/Dataset normalizado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\OneDrive\Documentos\bddad2024\Sprint 1\USBD04\Inserts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7472B28E-94CF-4B65-AD05-DF31AA0E5038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F164E8-3D06-4D0A-A80D-473B97FB32CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="700" firstSheet="2" activeTab="2" xr2:uid="{96054C54-0AC6-4E0E-AB4B-5CA509897BDA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="700" activeTab="2" xr2:uid="{96054C54-0AC6-4E0E-AB4B-5CA509897BDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="190">
   <si>
     <t>Name</t>
   </si>
@@ -517,21 +517,6 @@
     <t>SizeInt</t>
   </si>
   <si>
-    <t>MeasuramentUnitId</t>
-  </si>
-  <si>
-    <t>M6</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Width</t>
-  </si>
-  <si>
-    <t>Length</t>
-  </si>
-  <si>
     <t>003518340500</t>
   </si>
   <si>
@@ -584,9 +569,6 @@
   </si>
   <si>
     <t>AS12945P17</t>
-  </si>
-  <si>
-    <t>ComponentId</t>
   </si>
   <si>
     <t>Version</t>
@@ -1070,10 +1052,10 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -1097,10 +1079,10 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1124,10 +1106,10 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -1151,10 +1133,10 @@
         <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -1206,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D833FD3A-319E-497B-BBC6-9FC6F2F78F3D}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1225,7 +1207,7 @@
         <v>138</v>
       </c>
       <c r="C1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1278,7 +1260,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1290,10 +1272,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C7" t="s">
         <v>80</v>
@@ -1499,7 +1481,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1514,7 +1496,7 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1574,7 +1556,7 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1589,7 +1571,7 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1895,7 +1877,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="A1:D22"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2244,13 +2226,13 @@
         <v>131</v>
       </c>
       <c r="C1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2435,16 +2417,16 @@
   <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27:F39"/>
+      <selection activeCell="G27" sqref="G27:G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5546875" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="6" width="14.5546875" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2453,7 +2435,7 @@
         <v>129</v>
       </c>
       <c r="B1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C1" t="s">
         <v>130</v>
@@ -2622,7 +2604,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B11" t="s">
         <v>138</v>
@@ -2687,7 +2669,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C15">
         <v>20</v>
@@ -2826,7 +2808,7 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C23">
         <v>16</v>
@@ -2863,254 +2845,293 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>195</v>
+        <v>129</v>
       </c>
       <c r="B26" t="s">
+        <v>189</v>
+      </c>
+      <c r="C26" t="s">
         <v>138</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>80</v>
       </c>
-      <c r="D26" t="s">
-        <v>194</v>
-      </c>
-      <c r="E26" s="1"/>
+      <c r="E26" t="s">
+        <v>188</v>
+      </c>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
         <v>18</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>5</v>
       </c>
-      <c r="D27" s="1">
+      <c r="E27" s="1">
         <v>45550</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1" t="str">
-        <f>"INSERT INTO ProductionOrder(" &amp; $A$26 &amp; "," &amp; $B$26 &amp; "," &amp; $C$26 &amp; "," &amp; $D$26 &amp; ") VALUES(" &amp; A27 &amp; ", " &amp; B27 &amp; ", " &amp; C27 &amp; ", TO_DATE(" &amp; TEXT(D27,"'dd/MM/AAAA'") &amp; ", 'dd/MM/YYYY'));"</f>
-        <v>INSERT INTO ProductionOrder(CustomerOrderId,ProductId,Quantity,Date) VALUES(1, AS12945S22, 5, TO_DATE('15/09/2024', 'dd/MM/YYYY'));</v>
+      <c r="G27" s="1" t="str">
+        <f>"INSERT INTO ProductionOrder(" &amp; $A$26 &amp; "," &amp; $B$26 &amp; "," &amp; $C$26 &amp; "," &amp; $D$26 &amp; "," &amp; $E$26 &amp; ") VALUES(" &amp; A27 &amp; "," &amp; B27 &amp; ", " &amp; C27 &amp; ", " &amp; D27 &amp; ", TO_DATE(" &amp; TEXT(E27,"'dd/MM/AAAA'") &amp; ", 'dd/MM/YYYY'));"</f>
+        <v>INSERT INTO ProductionOrder(Id,CustomerOrderId,ProductId,Quantity,Date) VALUES(1,1, AS12945S22, 5, TO_DATE('15/09/2024', 'dd/MM/YYYY'));</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
         <v>20</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>15</v>
       </c>
-      <c r="D28" s="1">
+      <c r="E28" s="1">
         <v>45550</v>
       </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1" t="str">
-        <f t="shared" ref="F28:F39" si="2">"INSERT INTO ProductionOrder(" &amp; $A$26 &amp; "," &amp; $B$26 &amp; "," &amp; $C$26 &amp; "," &amp; $D$26 &amp; ") VALUES(" &amp; A28 &amp; ", " &amp; B28 &amp; ", " &amp; C28 &amp; ", TO_DATE(" &amp; TEXT(D28,"'dd/MM/AAAA'") &amp; ", 'dd/MM/YYYY'));"</f>
-        <v>INSERT INTO ProductionOrder(CustomerOrderId,ProductId,Quantity,Date) VALUES(1, AS12945S20, 15, TO_DATE('15/09/2024', 'dd/MM/YYYY'));</v>
+      <c r="G28" s="1" t="str">
+        <f t="shared" ref="G28:G39" si="2">"INSERT INTO ProductionOrder(" &amp; $A$26 &amp; "," &amp; $B$26 &amp; "," &amp; $C$26 &amp; "," &amp; $D$26 &amp; "," &amp; $E$26 &amp; ") VALUES(" &amp; A28 &amp; "," &amp; B28 &amp; ", " &amp; C28 &amp; ", " &amp; D28 &amp; ", TO_DATE(" &amp; TEXT(E28,"'dd/MM/AAAA'") &amp; ", 'dd/MM/YYYY'));"</f>
+        <v>INSERT INTO ProductionOrder(Id,CustomerOrderId,ProductId,Quantity,Date) VALUES(2,1, AS12945S20, 15, TO_DATE('15/09/2024', 'dd/MM/YYYY'));</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
         <v>2</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>18</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>10</v>
       </c>
-      <c r="D29" s="1">
+      <c r="E29" s="1">
         <v>45550</v>
       </c>
-      <c r="F29" s="1" t="str">
+      <c r="G29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO ProductionOrder(CustomerOrderId,ProductId,Quantity,Date) VALUES(2, AS12945S22, 10, TO_DATE('15/09/2024', 'dd/MM/YYYY'));</v>
+        <v>INSERT INTO ProductionOrder(Id,CustomerOrderId,ProductId,Quantity,Date) VALUES(3,2, AS12945S22, 10, TO_DATE('15/09/2024', 'dd/MM/YYYY'));</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
         <v>2</v>
       </c>
-      <c r="B30" t="s">
-        <v>178</v>
-      </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>173</v>
+      </c>
+      <c r="D30">
         <v>20</v>
       </c>
-      <c r="D30" s="1">
+      <c r="E30" s="1">
         <v>45550</v>
       </c>
-      <c r="F30" s="1" t="str">
+      <c r="G30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO ProductionOrder(CustomerOrderId,ProductId,Quantity,Date) VALUES(2, AS12945P17, 20, TO_DATE('15/09/2024', 'dd/MM/YYYY'));</v>
+        <v>INSERT INTO ProductionOrder(Id,CustomerOrderId,ProductId,Quantity,Date) VALUES(4,2, AS12945P17, 20, TO_DATE('15/09/2024', 'dd/MM/YYYY'));</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31">
         <v>3</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>18</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>10</v>
       </c>
-      <c r="D31" s="1">
+      <c r="E31" s="1">
         <v>45550</v>
       </c>
-      <c r="F31" s="1" t="str">
+      <c r="G31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO ProductionOrder(CustomerOrderId,ProductId,Quantity,Date) VALUES(3, AS12945S22, 10, TO_DATE('15/09/2024', 'dd/MM/YYYY'));</v>
+        <v>INSERT INTO ProductionOrder(Id,CustomerOrderId,ProductId,Quantity,Date) VALUES(5,3, AS12945S22, 10, TO_DATE('15/09/2024', 'dd/MM/YYYY'));</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="B32">
         <v>3</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>20</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>10</v>
       </c>
-      <c r="D32" s="1">
+      <c r="E32" s="1">
         <v>45550</v>
       </c>
-      <c r="F32" s="1" t="str">
+      <c r="G32" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO ProductionOrder(CustomerOrderId,ProductId,Quantity,Date) VALUES(3, AS12945S20, 10, TO_DATE('15/09/2024', 'dd/MM/YYYY'));</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>INSERT INTO ProductionOrder(Id,CustomerOrderId,ProductId,Quantity,Date) VALUES(6,3, AS12945S20, 10, TO_DATE('15/09/2024', 'dd/MM/YYYY'));</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
+        <v>7</v>
+      </c>
+      <c r="B33">
         <v>4</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>20</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>24</v>
       </c>
-      <c r="D33" s="1">
+      <c r="E33" s="1">
         <v>45553</v>
       </c>
-      <c r="F33" s="1" t="str">
+      <c r="G33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO ProductionOrder(CustomerOrderId,ProductId,Quantity,Date) VALUES(4, AS12945S20, 24, TO_DATE('18/09/2024', 'dd/MM/YYYY'));</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>INSERT INTO ProductionOrder(Id,CustomerOrderId,ProductId,Quantity,Date) VALUES(7,4, AS12945S20, 24, TO_DATE('18/09/2024', 'dd/MM/YYYY'));</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
+        <v>8</v>
+      </c>
+      <c r="B34">
         <v>4</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>18</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>16</v>
       </c>
-      <c r="D34" s="1">
+      <c r="E34" s="1">
         <v>45553</v>
       </c>
-      <c r="F34" s="1" t="str">
+      <c r="G34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO ProductionOrder(CustomerOrderId,ProductId,Quantity,Date) VALUES(4, AS12945S22, 16, TO_DATE('18/09/2024', 'dd/MM/YYYY'));</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>INSERT INTO ProductionOrder(Id,CustomerOrderId,ProductId,Quantity,Date) VALUES(8,4, AS12945S22, 16, TO_DATE('18/09/2024', 'dd/MM/YYYY'));</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
+        <v>9</v>
+      </c>
+      <c r="B35">
         <v>4</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>23</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>8</v>
       </c>
-      <c r="D35" s="1">
+      <c r="E35" s="1">
         <v>45553</v>
       </c>
-      <c r="F35" s="1" t="str">
+      <c r="G35" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO ProductionOrder(CustomerOrderId,ProductId,Quantity,Date) VALUES(4, AS12945S17, 8, TO_DATE('18/09/2024', 'dd/MM/YYYY'));</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>INSERT INTO ProductionOrder(Id,CustomerOrderId,ProductId,Quantity,Date) VALUES(9,4, AS12945S17, 8, TO_DATE('18/09/2024', 'dd/MM/YYYY'));</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
+        <v>10</v>
+      </c>
+      <c r="B36">
         <v>5</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>18</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>12</v>
       </c>
-      <c r="D36" s="1">
+      <c r="E36" s="1">
         <v>45553</v>
       </c>
-      <c r="F36" s="1" t="str">
+      <c r="G36" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO ProductionOrder(CustomerOrderId,ProductId,Quantity,Date) VALUES(5, AS12945S22, 12, TO_DATE('18/09/2024', 'dd/MM/YYYY'));</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>INSERT INTO ProductionOrder(Id,CustomerOrderId,ProductId,Quantity,Date) VALUES(10,5, AS12945S22, 12, TO_DATE('18/09/2024', 'dd/MM/YYYY'));</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
+        <v>11</v>
+      </c>
+      <c r="B37">
         <v>6</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>23</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>8</v>
       </c>
-      <c r="D37" s="1">
+      <c r="E37" s="1">
         <v>45553</v>
       </c>
-      <c r="F37" s="1" t="str">
+      <c r="G37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO ProductionOrder(CustomerOrderId,ProductId,Quantity,Date) VALUES(6, AS12945S17, 8, TO_DATE('18/09/2024', 'dd/MM/YYYY'));</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <v>INSERT INTO ProductionOrder(Id,CustomerOrderId,ProductId,Quantity,Date) VALUES(11,6, AS12945S17, 8, TO_DATE('18/09/2024', 'dd/MM/YYYY'));</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
+        <v>12</v>
+      </c>
+      <c r="B38">
         <v>6</v>
       </c>
-      <c r="B38" t="s">
-        <v>178</v>
-      </c>
-      <c r="C38">
+      <c r="C38" t="s">
+        <v>173</v>
+      </c>
+      <c r="D38">
         <v>16</v>
       </c>
-      <c r="D38" s="1">
+      <c r="E38" s="1">
         <v>45553</v>
       </c>
-      <c r="F38" s="1" t="str">
+      <c r="G38" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO ProductionOrder(CustomerOrderId,ProductId,Quantity,Date) VALUES(6, AS12945P17, 16, TO_DATE('18/09/2024', 'dd/MM/YYYY'));</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+        <v>INSERT INTO ProductionOrder(Id,CustomerOrderId,ProductId,Quantity,Date) VALUES(12,6, AS12945P17, 16, TO_DATE('18/09/2024', 'dd/MM/YYYY'));</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
+        <v>13</v>
+      </c>
+      <c r="B39">
         <v>7</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>18</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>8</v>
       </c>
-      <c r="D39" s="1">
+      <c r="E39" s="1">
         <v>45556</v>
       </c>
-      <c r="F39" s="1" t="str">
+      <c r="G39" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO ProductionOrder(CustomerOrderId,ProductId,Quantity,Date) VALUES(7, AS12945S22, 8, TO_DATE('21/09/2024', 'dd/MM/YYYY'));</v>
+        <v>INSERT INTO ProductionOrder(Id,CustomerOrderId,ProductId,Quantity,Date) VALUES(13,7, AS12945S22, 8, TO_DATE('21/09/2024', 'dd/MM/YYYY'));</v>
       </c>
     </row>
   </sheetData>
@@ -3123,7 +3144,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3144,7 +3165,7 @@
         <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D2" t="str">
         <f>"INSERT INTO ProductFamily(" &amp; $A$1 &amp; "," &amp; $B$1 &amp; ") VALUES(" &amp; A2 &amp; ", '" &amp; B2 &amp; "');"</f>
@@ -3156,7 +3177,7 @@
         <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D6" si="0">"INSERT INTO ProductFamily(" &amp; $A$1 &amp; "," &amp; $B$1 &amp; ") VALUES(" &amp; A3 &amp; ", '" &amp; B3 &amp; "');"</f>
@@ -3168,7 +3189,7 @@
         <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
@@ -3180,7 +3201,7 @@
         <v>145</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -3192,7 +3213,7 @@
         <v>146</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -3209,7 +3230,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F8"/>
+      <selection activeCell="C2" sqref="B2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3296,10 +3317,10 @@
         <v>125</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D5" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
@@ -3308,7 +3329,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B6">
         <v>132</v>
@@ -3370,7 +3391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C51F7F7-8394-4DF7-8369-AC46CFCEB4B5}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
@@ -3423,7 +3444,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -3513,7 +3534,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -3522,7 +3543,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -3531,7 +3552,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -3608,10 +3629,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B26" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="1"/>
@@ -3652,10 +3673,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B32" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D32" t="str">
         <f>"INSERT INTO RawMaterial(" &amp; $A$29 &amp; "," &amp; $B$29 &amp; ") VALUES('" &amp; A32 &amp; "', '" &amp; B32 &amp; "');"</f>
@@ -3664,10 +3685,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B33" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D33" t="str">
         <f>"INSERT INTO RawMaterial(" &amp; $A$29 &amp; "," &amp; $B$29 &amp; ") VALUES('" &amp; A33 &amp; "', '" &amp; B33 &amp; "');"</f>
@@ -3681,10 +3702,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E72C923-8516-4798-B5C0-FC81C4C86E27}">
-  <dimension ref="A1:S43"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3696,7 +3717,7 @@
     <col min="10" max="10" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>129</v>
       </c>
@@ -3704,33 +3725,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D2" t="str">
         <f>"INSERT INTO Colour(" &amp; $A$1 &amp; "," &amp; $B$1 &amp; ") VALUES(" &amp; A2 &amp; ", '" &amp; B2 &amp; "');"</f>
         <v>INSERT INTO Colour(Id,Name) VALUES(, '');</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="M3" t="s">
-        <v>179</v>
-      </c>
-      <c r="N3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>129</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="P4" t="str">
-        <f>"INSERT INTO Component_Colour(" &amp; $M$3 &amp; "," &amp; $N$3 &amp; ") VALUES('" &amp; M4 &amp; "', '" &amp; N4 &amp; "')"</f>
-        <v>INSERT INTO Component_Colour(ComponentId,ColourId) VALUES('', '')</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3742,7 +3751,7 @@
         <v>INSERT INTO Material(Id,Name) VALUES(1, 'aluminium');</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -3754,7 +3763,7 @@
         <v>INSERT INTO Material(Id,Name) VALUES(2, 'teflon');</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -3765,14 +3774,8 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO Material(Id,Name) VALUES(3, 'stainless steel');</v>
       </c>
-      <c r="M7" t="s">
-        <v>179</v>
-      </c>
-      <c r="N7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -3783,48 +3786,16 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO Material(Id,Name) VALUES(4, 'glass');</v>
       </c>
-      <c r="M8" t="s">
-        <v>85</v>
-      </c>
-      <c r="N8">
-        <v>3</v>
-      </c>
-      <c r="P8" t="str">
-        <f>"INSERT INTO Component_Material(" &amp; $M$7 &amp; "," &amp; $N$7 &amp; ") VALUES('" &amp; M8 &amp; "', '" &amp; N8 &amp; "')"</f>
-        <v>INSERT INTO Component_Material(ComponentId,MaterialId) VALUES('PN52384R50', '3')</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="M9" t="s">
-        <v>86</v>
-      </c>
-      <c r="N9">
-        <v>3</v>
-      </c>
-      <c r="P9" t="str">
-        <f>"INSERT INTO Component_Colour(" &amp; $M$7 &amp; "," &amp; $N$7 &amp; ") VALUES('" &amp; M9 &amp; "', '" &amp; N9 &amp; "')"</f>
-        <v>INSERT INTO Component_Colour(ComponentId,MaterialId) VALUES('PN52384R10', '3')</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>129</v>
       </c>
       <c r="B10" t="s">
         <v>149</v>
       </c>
-      <c r="M10" t="s">
-        <v>87</v>
-      </c>
-      <c r="N10">
-        <v>3</v>
-      </c>
-      <c r="P10" t="str">
-        <f>"INSERT INTO Component_Colour(" &amp; $M$7 &amp; "," &amp; $N$7 &amp; ") VALUES('" &amp; M10 &amp; "', '" &amp; N10 &amp; "')"</f>
-        <v>INSERT INTO Component_Colour(ComponentId,MaterialId) VALUES('PN18544C21', '3')</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -3835,18 +3806,8 @@
         <f>"INSERT INTO MeasurementUnit(" &amp; $A$10 &amp; "," &amp; $B$10 &amp; ") VALUES(" &amp; A11 &amp; ", '" &amp; B11 &amp; "');"</f>
         <v>INSERT INTO MeasurementUnit(Id,Unit) VALUES(1, 'cm');</v>
       </c>
-      <c r="M11" t="s">
-        <v>88</v>
-      </c>
-      <c r="N11">
-        <v>3</v>
-      </c>
-      <c r="P11" t="str">
-        <f>"INSERT INTO Component_Colour(" &amp; $M$7 &amp; "," &amp; $N$7 &amp; ") VALUES('" &amp; M11 &amp; "', '" &amp; N11 &amp; "')"</f>
-        <v>INSERT INTO Component_Colour(ComponentId,MaterialId) VALUES('PN18324C54', '3')</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -3857,18 +3818,8 @@
         <f t="shared" ref="D12:D13" si="1">"INSERT INTO MeasurementUnit(" &amp; $A$10 &amp; "," &amp; $B$10 &amp; ") VALUES(" &amp; A12 &amp; ", '" &amp; B12 &amp; "');"</f>
         <v>INSERT INTO MeasurementUnit(Id,Unit) VALUES(2, 'l');</v>
       </c>
-      <c r="M12" t="s">
-        <v>143</v>
-      </c>
-      <c r="N12">
-        <v>3</v>
-      </c>
-      <c r="P12" t="str">
-        <f>"INSERT INTO Component_Colour(" &amp; $M$7 &amp; "," &amp; $N$7 &amp; ") VALUES('" &amp; M12 &amp; "', '" &amp; N12 &amp; "')"</f>
-        <v>INSERT INTO Component_Colour(ComponentId,MaterialId) VALUES('PN18324C51', '3')</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
@@ -3880,166 +3831,29 @@
         <v>INSERT INTO MeasurementUnit(Id,Unit) VALUES(3, 'mm');</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="M14" t="s">
-        <v>129</v>
-      </c>
-      <c r="N14" t="s">
-        <v>179</v>
-      </c>
-      <c r="O14" t="s">
-        <v>155</v>
-      </c>
-      <c r="P14" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="N15" t="s">
-        <v>78</v>
-      </c>
-      <c r="O15">
-        <v>35</v>
-      </c>
-      <c r="P15">
-        <v>3</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>157</v>
-      </c>
-      <c r="S15" t="str">
-        <f t="shared" ref="S15:S22" si="2">"INSERT INTO Component_Size(" &amp; $M$14 &amp; "," &amp; $N$14 &amp; "," &amp; $O$14 &amp; "," &amp; $P$14 &amp; "," &amp; $Q$14 &amp; ") VALUES('" &amp; M15 &amp; "', '" &amp; N15 &amp; "','" &amp; O15 &amp; "', '" &amp; P15 &amp; "','" &amp; Q15 &amp; "')"</f>
-        <v>INSERT INTO Component_Size(Id,ComponentId,SizeInt,MeasuramentUnitId,Description) VALUES('1', 'PN12344A21','35', '3','M6')</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>138</v>
       </c>
       <c r="B16" t="s">
         <v>153</v>
       </c>
-      <c r="M16">
-        <v>2</v>
-      </c>
-      <c r="N16" t="s">
-        <v>85</v>
-      </c>
-      <c r="O16">
-        <v>300</v>
-      </c>
-      <c r="P16">
-        <v>3</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>159</v>
-      </c>
-      <c r="S16" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO Component_Size(Id,ComponentId,SizeInt,MeasuramentUnitId,Description) VALUES('2', 'PN52384R50','300', '3','Width')</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D17" t="str">
         <f>"INSERT INTO Product_Colour(" &amp; $A$16 &amp; "," &amp; $B$16 &amp; ") VALUES('" &amp; A17 &amp; "', " &amp; B17 &amp; ");"</f>
         <v>INSERT INTO Product_Colour(ProductId,ColourId) VALUES('', );</v>
       </c>
-      <c r="M17">
-        <v>3</v>
-      </c>
-      <c r="N17" t="s">
-        <v>85</v>
-      </c>
-      <c r="O17">
-        <v>300</v>
-      </c>
-      <c r="P17">
-        <v>3</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>160</v>
-      </c>
-      <c r="S17" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO Component_Size(Id,ComponentId,SizeInt,MeasuramentUnitId,Description) VALUES('3', 'PN52384R50','300', '3','Length')</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="M18">
-        <v>4</v>
-      </c>
-      <c r="N18" t="s">
-        <v>85</v>
-      </c>
-      <c r="O18">
-        <v>5</v>
-      </c>
-      <c r="P18">
-        <v>3</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>158</v>
-      </c>
-      <c r="S18" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO Component_Size(Id,ComponentId,SizeInt,MeasuramentUnitId,Description) VALUES('4', 'PN52384R50','5', '3','Depth')</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="M19">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s">
-        <v>86</v>
-      </c>
-      <c r="O19">
-        <v>300</v>
-      </c>
-      <c r="P19">
-        <v>3</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>159</v>
-      </c>
-      <c r="S19" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO Component_Size(Id,ComponentId,SizeInt,MeasuramentUnitId,Description) VALUES('5', 'PN52384R10','300', '3','Width')</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>138</v>
       </c>
       <c r="B20" t="s">
         <v>154</v>
       </c>
-      <c r="M20">
-        <v>6</v>
-      </c>
-      <c r="N20" t="s">
-        <v>86</v>
-      </c>
-      <c r="O20">
-        <v>300</v>
-      </c>
-      <c r="P20">
-        <v>3</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>160</v>
-      </c>
-      <c r="S20" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO Component_Size(Id,ComponentId,SizeInt,MeasuramentUnitId,Description) VALUES('6', 'PN52384R10','300', '3','Length')</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -4050,27 +3864,8 @@
         <f>"INSERT INTO Product_Material(" &amp; $A$20 &amp; "," &amp; $B$20 &amp; ") VALUES('" &amp; A21 &amp; "', " &amp; B21 &amp; ");"</f>
         <v>INSERT INTO Product_Material(ProductId,MaterialId) VALUES('AS12945T22', 1);</v>
       </c>
-      <c r="M21">
-        <v>7</v>
-      </c>
-      <c r="N21" t="s">
-        <v>86</v>
-      </c>
-      <c r="O21">
-        <v>1</v>
-      </c>
-      <c r="P21">
-        <v>3</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>158</v>
-      </c>
-      <c r="S21" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO Component_Size(Id,ComponentId,SizeInt,MeasuramentUnitId,Description) VALUES('7', 'PN52384R10','1', '3','Depth')</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -4078,30 +3873,11 @@
         <v>2</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" ref="D22:D28" si="3">"INSERT INTO Product_Material(" &amp; $A$20 &amp; "," &amp; $B$20 &amp; ") VALUES('" &amp; A22 &amp; "', " &amp; B22 &amp; ");"</f>
+        <f t="shared" ref="D22:D28" si="2">"INSERT INTO Product_Material(" &amp; $A$20 &amp; "," &amp; $B$20 &amp; ") VALUES('" &amp; A22 &amp; "', " &amp; B22 &amp; ");"</f>
         <v>INSERT INTO Product_Material(ProductId,MaterialId) VALUES('AS12945T22', 2);</v>
       </c>
-      <c r="M22">
-        <v>8</v>
-      </c>
-      <c r="N22" t="s">
-        <v>83</v>
-      </c>
-      <c r="O22">
-        <v>6</v>
-      </c>
-      <c r="P22">
-        <v>3</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>137</v>
-      </c>
-      <c r="S22" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO Component_Size(Id,ComponentId,SizeInt,MeasuramentUnitId,Description) VALUES('8', 'PN18544A21','6', '3','NULL')</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -4109,11 +3885,11 @@
         <v>3</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Product_Material(ProductId,MaterialId) VALUES('AS12945S22', 3);</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -4121,11 +3897,11 @@
         <v>3</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Product_Material(ProductId,MaterialId) VALUES('AS12945S20', 3);</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -4133,11 +3909,11 @@
         <v>3</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Product_Material(ProductId,MaterialId) VALUES('AS12945S17', 3);</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>68</v>
       </c>
@@ -4145,11 +3921,11 @@
         <v>3</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Product_Material(ProductId,MaterialId) VALUES('AS12945S48', 3);</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>74</v>
       </c>
@@ -4157,23 +3933,23 @@
         <v>4</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Product_Material(ProductId,MaterialId) VALUES('AS12945G48', 4);</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Product_Material(ProductId,MaterialId) VALUES('AS12945P17', 3);</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>129</v>
       </c>
@@ -4184,13 +3960,13 @@
         <v>155</v>
       </c>
       <c r="D31" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1</v>
       </c>
@@ -4228,7 +4004,7 @@
         <v>137</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" ref="G33:G43" si="4">"INSERT INTO Product_Size(" &amp; $A$31 &amp; "," &amp; $B$31 &amp; "," &amp; $C$31 &amp; "," &amp; $D$31 &amp; "," &amp; $E$31 &amp; ") VALUES(" &amp; A33 &amp; ", '" &amp; B33 &amp; "'," &amp; C33 &amp; ", " &amp; D33 &amp; ",'" &amp; E33 &amp; "');"</f>
+        <f t="shared" ref="G33:G43" si="3">"INSERT INTO Product_Size(" &amp; $A$31 &amp; "," &amp; $B$31 &amp; "," &amp; $C$31 &amp; "," &amp; $D$31 &amp; "," &amp; $E$31 &amp; ") VALUES(" &amp; A33 &amp; ", '" &amp; B33 &amp; "'," &amp; C33 &amp; ", " &amp; D33 &amp; ",'" &amp; E33 &amp; "');"</f>
         <v>INSERT INTO Product_Size(Id,ProductId,SizeInt,MeasurementUnitId,Description) VALUES(2, 'AS12945T22',22, 1,'NULL');</v>
       </c>
     </row>
@@ -4249,7 +4025,7 @@
         <v>137</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO Product_Size(Id,ProductId,SizeInt,MeasurementUnitId,Description) VALUES(3, 'AS12945S22',5, 2,'NULL');</v>
       </c>
     </row>
@@ -4270,7 +4046,7 @@
         <v>137</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO Product_Size(Id,ProductId,SizeInt,MeasurementUnitId,Description) VALUES(4, 'AS12945S22',22, 1,'NULL');</v>
       </c>
     </row>
@@ -4291,7 +4067,7 @@
         <v>137</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO Product_Size(Id,ProductId,SizeInt,MeasurementUnitId,Description) VALUES(5, 'AS12945S20',3, 2,'NULL');</v>
       </c>
     </row>
@@ -4312,7 +4088,7 @@
         <v>137</v>
       </c>
       <c r="G37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO Product_Size(Id,ProductId,SizeInt,MeasurementUnitId,Description) VALUES(6, 'AS12945S20',20, 1,'NULL');</v>
       </c>
     </row>
@@ -4333,7 +4109,7 @@
         <v>137</v>
       </c>
       <c r="G38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO Product_Size(Id,ProductId,SizeInt,MeasurementUnitId,Description) VALUES(7, 'AS12945S17',2, 2,'NULL');</v>
       </c>
     </row>
@@ -4354,7 +4130,7 @@
         <v>137</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO Product_Size(Id,ProductId,SizeInt,MeasurementUnitId,Description) VALUES(8, 'AS12945S17',17, 1,'NULL');</v>
       </c>
     </row>
@@ -4375,7 +4151,7 @@
         <v>137</v>
       </c>
       <c r="G40" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO Product_Size(Id,ProductId,SizeInt,MeasurementUnitId,Description) VALUES(9, 'AS12945S48',17, 1,'NULL');</v>
       </c>
     </row>
@@ -4396,7 +4172,7 @@
         <v>137</v>
       </c>
       <c r="G41" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO Product_Size(Id,ProductId,SizeInt,MeasurementUnitId,Description) VALUES(10, 'AS12945G48',17, 1,'NULL');</v>
       </c>
     </row>
@@ -4405,7 +4181,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -4417,7 +4193,7 @@
         <v>137</v>
       </c>
       <c r="G42" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO Product_Size(Id,ProductId,SizeInt,MeasurementUnitId,Description) VALUES(11, 'AS12945P17',2, 2,'NULL');</v>
       </c>
     </row>
@@ -4426,7 +4202,7 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C43">
         <v>17</v>
@@ -4438,7 +4214,7 @@
         <v>137</v>
       </c>
       <c r="G43" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO Product_Size(Id,ProductId,SizeInt,MeasurementUnitId,Description) VALUES(12, 'AS12945P17',17, 1,'NULL');</v>
       </c>
     </row>
@@ -4631,7 +4407,7 @@
         <v>5681</v>
       </c>
       <c r="B15" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -4643,7 +4419,7 @@
         <v>5682</v>
       </c>
       <c r="B16" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -4655,7 +4431,7 @@
         <v>5683</v>
       </c>
       <c r="B17" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -4667,7 +4443,7 @@
         <v>5688</v>
       </c>
       <c r="B18" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D18" t="str">
         <f>"INSERT INTO Operation(" &amp; $A$1 &amp; "," &amp; $B$1 &amp; ") VALUES(" &amp; A18 &amp; ", '" &amp; B18 &amp; "');"</f>
@@ -5160,23 +4936,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6d3c5dfb-1cc0-4432-86cb-2a9d0e8e17b0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005CAEFE7FC9D8B84EBE55524C48F58D03" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="497854f89e4a3d7bf883e8e815c91d37">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6d3c5dfb-1cc0-4432-86cb-2a9d0e8e17b0" xmlns:ns4="c83fef03-7e53-47dc-8a06-28f89aa017e1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="19b7ffbcacb703e844d38f10494d74a9" ns3:_="" ns4:_="">
     <xsd:import namespace="6d3c5dfb-1cc0-4432-86cb-2a9d0e8e17b0"/>
@@ -5409,32 +5168,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE7026BE-4F45-4595-B98C-E9D8129D4591}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="6d3c5dfb-1cc0-4432-86cb-2a9d0e8e17b0"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="c83fef03-7e53-47dc-8a06-28f89aa017e1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53C8F835-22B2-4A5C-B33C-2EBD4DAC13D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6d3c5dfb-1cc0-4432-86cb-2a9d0e8e17b0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21BE2CCF-9747-4435-B7C5-28A62B986CF3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5451,4 +5202,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53C8F835-22B2-4A5C-B33C-2EBD4DAC13D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE7026BE-4F45-4595-B98C-E9D8129D4591}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="6d3c5dfb-1cc0-4432-86cb-2a9d0e8e17b0"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="c83fef03-7e53-47dc-8a06-28f89aa017e1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Sprint 1/USBD04/Inserts/Dataset normalizado.xlsx
+++ b/Sprint 1/USBD04/Inserts/Dataset normalizado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\OneDrive\Documentos\bddad2024\Sprint 1\USBD04\Inserts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F164E8-3D06-4D0A-A80D-473B97FB32CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321FB864-6F73-4129-9E02-9CBE090E612D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="700" activeTab="2" xr2:uid="{96054C54-0AC6-4E0E-AB4B-5CA509897BDA}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="190">
   <si>
     <t>Name</t>
   </si>
@@ -613,10 +613,10 @@
     <t>Pan test and packaging</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>CustomerOrderId</t>
+  </si>
+  <si>
+    <t>ProductionDate</t>
   </si>
 </sst>
 </file>
@@ -1002,7 +1002,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2416,14 +2416,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE470C24-4865-4CED-BECB-9AD0BD718C1F}">
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G27" sqref="G27:G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="6" width="14.5546875" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
@@ -2454,8 +2454,8 @@
       <c r="B2">
         <v>785</v>
       </c>
-      <c r="C2" t="s">
-        <v>137</v>
+      <c r="C2">
+        <v>2</v>
       </c>
       <c r="D2" s="1">
         <v>45550</v>
@@ -2466,7 +2466,7 @@
       <c r="F2" s="1"/>
       <c r="G2" t="str">
         <f>"INSERT INTO CustomerOrder(" &amp; $A$1 &amp; "," &amp; $B$1 &amp; "," &amp; $C$1 &amp; "," &amp; $D$1 &amp; "," &amp; $E$1 &amp; ") VALUES(" &amp; A2 &amp; ", " &amp; B2 &amp; ", " &amp; C2 &amp; ", TO_DATE(" &amp; TEXT(D2,"'dd/MM/AAAA'") &amp; ", 'dd/MM/YYYY'), TO_DATE(" &amp; TEXT(E2,"'dd/MM/AAAA'") &amp; ", 'dd/MM/YYYY'));"</f>
-        <v>INSERT INTO CustomerOrder(Id,CustomerId,AddressId,DateOrder,DateDelivery) VALUES(1, 785, NULL, TO_DATE('15/09/2024', 'dd/MM/YYYY'), TO_DATE('23/09/2024', 'dd/MM/YYYY'));</v>
+        <v>INSERT INTO CustomerOrder(Id,CustomerId,AddressId,DateOrder,DateDelivery) VALUES(1, 785, 2, TO_DATE('15/09/2024', 'dd/MM/YYYY'), TO_DATE('23/09/2024', 'dd/MM/YYYY'));</v>
       </c>
       <c r="S2" s="1"/>
     </row>
@@ -2477,8 +2477,8 @@
       <c r="B3">
         <v>657</v>
       </c>
-      <c r="C3" t="s">
-        <v>137</v>
+      <c r="C3">
+        <v>3</v>
       </c>
       <c r="D3" s="1">
         <v>45550</v>
@@ -2489,7 +2489,7 @@
       <c r="F3" s="1"/>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G8" si="0">"INSERT INTO CustomerOrder(" &amp; $A$1 &amp; "," &amp; $B$1 &amp; "," &amp; $C$1 &amp; "," &amp; $D$1 &amp; "," &amp; $E$1 &amp; ") VALUES(" &amp; A3 &amp; ", " &amp; B3 &amp; ", " &amp; C3 &amp; ", TO_DATE(" &amp; TEXT(D3,"'dd/MM/AAAA'") &amp; ", 'dd/MM/YYYY'), TO_DATE(" &amp; TEXT(E3,"'dd/MM/AAAA'") &amp; ", 'dd/MM/YYYY'));"</f>
-        <v>INSERT INTO CustomerOrder(Id,CustomerId,AddressId,DateOrder,DateDelivery) VALUES(2, 657, NULL, TO_DATE('15/09/2024', 'dd/MM/YYYY'), TO_DATE('26/09/2024', 'dd/MM/YYYY'));</v>
+        <v>INSERT INTO CustomerOrder(Id,CustomerId,AddressId,DateOrder,DateDelivery) VALUES(2, 657, 3, TO_DATE('15/09/2024', 'dd/MM/YYYY'), TO_DATE('26/09/2024', 'dd/MM/YYYY'));</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -2499,8 +2499,8 @@
       <c r="B4">
         <v>348</v>
       </c>
-      <c r="C4" t="s">
-        <v>137</v>
+      <c r="C4">
+        <v>4</v>
       </c>
       <c r="D4" s="1">
         <v>45550</v>
@@ -2511,7 +2511,7 @@
       <c r="F4" s="1"/>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO CustomerOrder(Id,CustomerId,AddressId,DateOrder,DateDelivery) VALUES(3, 348, NULL, TO_DATE('15/09/2024', 'dd/MM/YYYY'), TO_DATE('25/09/2024', 'dd/MM/YYYY'));</v>
+        <v>INSERT INTO CustomerOrder(Id,CustomerId,AddressId,DateOrder,DateDelivery) VALUES(3, 348, 4, TO_DATE('15/09/2024', 'dd/MM/YYYY'), TO_DATE('25/09/2024', 'dd/MM/YYYY'));</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -2521,8 +2521,8 @@
       <c r="B5">
         <v>785</v>
       </c>
-      <c r="C5" t="s">
-        <v>137</v>
+      <c r="C5">
+        <v>2</v>
       </c>
       <c r="D5" s="1">
         <v>45553</v>
@@ -2533,7 +2533,7 @@
       <c r="F5" s="1"/>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO CustomerOrder(Id,CustomerId,AddressId,DateOrder,DateDelivery) VALUES(4, 785, NULL, TO_DATE('18/09/2024', 'dd/MM/YYYY'), TO_DATE('25/09/2024', 'dd/MM/YYYY'));</v>
+        <v>INSERT INTO CustomerOrder(Id,CustomerId,AddressId,DateOrder,DateDelivery) VALUES(4, 785, 2, TO_DATE('18/09/2024', 'dd/MM/YYYY'), TO_DATE('25/09/2024', 'dd/MM/YYYY'));</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -2543,8 +2543,8 @@
       <c r="B6">
         <v>657</v>
       </c>
-      <c r="C6" t="s">
-        <v>137</v>
+      <c r="C6">
+        <v>3</v>
       </c>
       <c r="D6" s="1">
         <v>45553</v>
@@ -2555,7 +2555,7 @@
       <c r="F6" s="1"/>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO CustomerOrder(Id,CustomerId,AddressId,DateOrder,DateDelivery) VALUES(5, 657, NULL, TO_DATE('18/09/2024', 'dd/MM/YYYY'), TO_DATE('25/09/2024', 'dd/MM/YYYY'));</v>
+        <v>INSERT INTO CustomerOrder(Id,CustomerId,AddressId,DateOrder,DateDelivery) VALUES(5, 657, 3, TO_DATE('18/09/2024', 'dd/MM/YYYY'), TO_DATE('25/09/2024', 'dd/MM/YYYY'));</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -2565,8 +2565,8 @@
       <c r="B7">
         <v>348</v>
       </c>
-      <c r="C7" t="s">
-        <v>137</v>
+      <c r="C7">
+        <v>4</v>
       </c>
       <c r="D7" s="1">
         <v>45553</v>
@@ -2577,7 +2577,7 @@
       <c r="F7" s="1"/>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO CustomerOrder(Id,CustomerId,AddressId,DateOrder,DateDelivery) VALUES(6, 348, NULL, TO_DATE('18/09/2024', 'dd/MM/YYYY'), TO_DATE('26/09/2024', 'dd/MM/YYYY'));</v>
+        <v>INSERT INTO CustomerOrder(Id,CustomerId,AddressId,DateOrder,DateDelivery) VALUES(6, 348, 4, TO_DATE('18/09/2024', 'dd/MM/YYYY'), TO_DATE('26/09/2024', 'dd/MM/YYYY'));</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -2587,8 +2587,8 @@
       <c r="B8">
         <v>456</v>
       </c>
-      <c r="C8" t="s">
-        <v>137</v>
+      <c r="C8">
+        <v>1</v>
       </c>
       <c r="D8" s="1">
         <v>45556</v>
@@ -2599,12 +2599,12 @@
       <c r="F8" s="1"/>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO CustomerOrder(Id,CustomerId,AddressId,DateOrder,DateDelivery) VALUES(7, 456, NULL, TO_DATE('21/09/2024', 'dd/MM/YYYY'), TO_DATE('26/09/2024', 'dd/MM/YYYY'));</v>
+        <v>INSERT INTO CustomerOrder(Id,CustomerId,AddressId,DateOrder,DateDelivery) VALUES(7, 456, 1, TO_DATE('21/09/2024', 'dd/MM/YYYY'), TO_DATE('26/09/2024', 'dd/MM/YYYY'));</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B11" t="s">
         <v>138</v>
@@ -2848,7 +2848,7 @@
         <v>129</v>
       </c>
       <c r="B26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C26" t="s">
         <v>138</v>
@@ -2857,7 +2857,7 @@
         <v>80</v>
       </c>
       <c r="E26" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F26" s="1"/>
     </row>
@@ -2878,8 +2878,8 @@
         <v>45550</v>
       </c>
       <c r="G27" s="1" t="str">
-        <f>"INSERT INTO ProductionOrder(" &amp; $A$26 &amp; "," &amp; $B$26 &amp; "," &amp; $C$26 &amp; "," &amp; $D$26 &amp; "," &amp; $E$26 &amp; ") VALUES(" &amp; A27 &amp; "," &amp; B27 &amp; ", " &amp; C27 &amp; ", " &amp; D27 &amp; ", TO_DATE(" &amp; TEXT(E27,"'dd/MM/AAAA'") &amp; ", 'dd/MM/YYYY'));"</f>
-        <v>INSERT INTO ProductionOrder(Id,CustomerOrderId,ProductId,Quantity,Date) VALUES(1,1, AS12945S22, 5, TO_DATE('15/09/2024', 'dd/MM/YYYY'));</v>
+        <f>"INSERT INTO ProductionOrder(" &amp; $A$26 &amp; "," &amp; $B$26 &amp; "," &amp; $C$26 &amp; "," &amp; $D$26 &amp; "," &amp; $E$26 &amp; ") VALUES(" &amp; A27 &amp; "," &amp; B27 &amp; ",'" &amp; C27 &amp; "', " &amp; D27 &amp; ", TO_DATE(" &amp; TEXT(E27,"'dd/MM/AAAA'") &amp; ", 'dd/MM/YYYY'));"</f>
+        <v>INSERT INTO ProductionOrder(Id,CustomerOrderId,ProductId,Quantity,ProductionDate) VALUES(1,1,'AS12945S22', 5, TO_DATE('15/09/2024', 'dd/MM/YYYY'));</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2899,8 +2899,8 @@
         <v>45550</v>
       </c>
       <c r="G28" s="1" t="str">
-        <f t="shared" ref="G28:G39" si="2">"INSERT INTO ProductionOrder(" &amp; $A$26 &amp; "," &amp; $B$26 &amp; "," &amp; $C$26 &amp; "," &amp; $D$26 &amp; "," &amp; $E$26 &amp; ") VALUES(" &amp; A28 &amp; "," &amp; B28 &amp; ", " &amp; C28 &amp; ", " &amp; D28 &amp; ", TO_DATE(" &amp; TEXT(E28,"'dd/MM/AAAA'") &amp; ", 'dd/MM/YYYY'));"</f>
-        <v>INSERT INTO ProductionOrder(Id,CustomerOrderId,ProductId,Quantity,Date) VALUES(2,1, AS12945S20, 15, TO_DATE('15/09/2024', 'dd/MM/YYYY'));</v>
+        <f t="shared" ref="G28:G39" si="2">"INSERT INTO ProductionOrder(" &amp; $A$26 &amp; "," &amp; $B$26 &amp; "," &amp; $C$26 &amp; "," &amp; $D$26 &amp; "," &amp; $E$26 &amp; ") VALUES(" &amp; A28 &amp; "," &amp; B28 &amp; ",'" &amp; C28 &amp; "', " &amp; D28 &amp; ", TO_DATE(" &amp; TEXT(E28,"'dd/MM/AAAA'") &amp; ", 'dd/MM/YYYY'));"</f>
+        <v>INSERT INTO ProductionOrder(Id,CustomerOrderId,ProductId,Quantity,ProductionDate) VALUES(2,1,'AS12945S20', 15, TO_DATE('15/09/2024', 'dd/MM/YYYY'));</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2921,7 +2921,7 @@
       </c>
       <c r="G29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO ProductionOrder(Id,CustomerOrderId,ProductId,Quantity,Date) VALUES(3,2, AS12945S22, 10, TO_DATE('15/09/2024', 'dd/MM/YYYY'));</v>
+        <v>INSERT INTO ProductionOrder(Id,CustomerOrderId,ProductId,Quantity,ProductionDate) VALUES(3,2,'AS12945S22', 10, TO_DATE('15/09/2024', 'dd/MM/YYYY'));</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,7 +2942,7 @@
       </c>
       <c r="G30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO ProductionOrder(Id,CustomerOrderId,ProductId,Quantity,Date) VALUES(4,2, AS12945P17, 20, TO_DATE('15/09/2024', 'dd/MM/YYYY'));</v>
+        <v>INSERT INTO ProductionOrder(Id,CustomerOrderId,ProductId,Quantity,ProductionDate) VALUES(4,2,'AS12945P17', 20, TO_DATE('15/09/2024', 'dd/MM/YYYY'));</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="G31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO ProductionOrder(Id,CustomerOrderId,ProductId,Quantity,Date) VALUES(5,3, AS12945S22, 10, TO_DATE('15/09/2024', 'dd/MM/YYYY'));</v>
+        <v>INSERT INTO ProductionOrder(Id,CustomerOrderId,ProductId,Quantity,ProductionDate) VALUES(5,3,'AS12945S22', 10, TO_DATE('15/09/2024', 'dd/MM/YYYY'));</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2984,7 +2984,7 @@
       </c>
       <c r="G32" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO ProductionOrder(Id,CustomerOrderId,ProductId,Quantity,Date) VALUES(6,3, AS12945S20, 10, TO_DATE('15/09/2024', 'dd/MM/YYYY'));</v>
+        <v>INSERT INTO ProductionOrder(Id,CustomerOrderId,ProductId,Quantity,ProductionDate) VALUES(6,3,'AS12945S20', 10, TO_DATE('15/09/2024', 'dd/MM/YYYY'));</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -3005,7 +3005,7 @@
       </c>
       <c r="G33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO ProductionOrder(Id,CustomerOrderId,ProductId,Quantity,Date) VALUES(7,4, AS12945S20, 24, TO_DATE('18/09/2024', 'dd/MM/YYYY'));</v>
+        <v>INSERT INTO ProductionOrder(Id,CustomerOrderId,ProductId,Quantity,ProductionDate) VALUES(7,4,'AS12945S20', 24, TO_DATE('18/09/2024', 'dd/MM/YYYY'));</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="G34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO ProductionOrder(Id,CustomerOrderId,ProductId,Quantity,Date) VALUES(8,4, AS12945S22, 16, TO_DATE('18/09/2024', 'dd/MM/YYYY'));</v>
+        <v>INSERT INTO ProductionOrder(Id,CustomerOrderId,ProductId,Quantity,ProductionDate) VALUES(8,4,'AS12945S22', 16, TO_DATE('18/09/2024', 'dd/MM/YYYY'));</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -3047,7 +3047,7 @@
       </c>
       <c r="G35" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO ProductionOrder(Id,CustomerOrderId,ProductId,Quantity,Date) VALUES(9,4, AS12945S17, 8, TO_DATE('18/09/2024', 'dd/MM/YYYY'));</v>
+        <v>INSERT INTO ProductionOrder(Id,CustomerOrderId,ProductId,Quantity,ProductionDate) VALUES(9,4,'AS12945S17', 8, TO_DATE('18/09/2024', 'dd/MM/YYYY'));</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="G36" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO ProductionOrder(Id,CustomerOrderId,ProductId,Quantity,Date) VALUES(10,5, AS12945S22, 12, TO_DATE('18/09/2024', 'dd/MM/YYYY'));</v>
+        <v>INSERT INTO ProductionOrder(Id,CustomerOrderId,ProductId,Quantity,ProductionDate) VALUES(10,5,'AS12945S22', 12, TO_DATE('18/09/2024', 'dd/MM/YYYY'));</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -3089,7 +3089,7 @@
       </c>
       <c r="G37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO ProductionOrder(Id,CustomerOrderId,ProductId,Quantity,Date) VALUES(11,6, AS12945S17, 8, TO_DATE('18/09/2024', 'dd/MM/YYYY'));</v>
+        <v>INSERT INTO ProductionOrder(Id,CustomerOrderId,ProductId,Quantity,ProductionDate) VALUES(11,6,'AS12945S17', 8, TO_DATE('18/09/2024', 'dd/MM/YYYY'));</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="G38" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO ProductionOrder(Id,CustomerOrderId,ProductId,Quantity,Date) VALUES(12,6, AS12945P17, 16, TO_DATE('18/09/2024', 'dd/MM/YYYY'));</v>
+        <v>INSERT INTO ProductionOrder(Id,CustomerOrderId,ProductId,Quantity,ProductionDate) VALUES(12,6,'AS12945P17', 16, TO_DATE('18/09/2024', 'dd/MM/YYYY'));</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -3131,7 +3131,7 @@
       </c>
       <c r="G39" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO ProductionOrder(Id,CustomerOrderId,ProductId,Quantity,Date) VALUES(13,7, AS12945S22, 8, TO_DATE('21/09/2024', 'dd/MM/YYYY'));</v>
+        <v>INSERT INTO ProductionOrder(Id,CustomerOrderId,ProductId,Quantity,ProductionDate) VALUES(13,7,'AS12945S22', 8, TO_DATE('21/09/2024', 'dd/MM/YYYY'));</v>
       </c>
     </row>
   </sheetData>
@@ -4936,6 +4936,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6d3c5dfb-1cc0-4432-86cb-2a9d0e8e17b0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005CAEFE7FC9D8B84EBE55524C48F58D03" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="497854f89e4a3d7bf883e8e815c91d37">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6d3c5dfb-1cc0-4432-86cb-2a9d0e8e17b0" xmlns:ns4="c83fef03-7e53-47dc-8a06-28f89aa017e1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="19b7ffbcacb703e844d38f10494d74a9" ns3:_="" ns4:_="">
     <xsd:import namespace="6d3c5dfb-1cc0-4432-86cb-2a9d0e8e17b0"/>
@@ -5168,24 +5185,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE7026BE-4F45-4595-B98C-E9D8129D4591}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="6d3c5dfb-1cc0-4432-86cb-2a9d0e8e17b0"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="c83fef03-7e53-47dc-8a06-28f89aa017e1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6d3c5dfb-1cc0-4432-86cb-2a9d0e8e17b0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53C8F835-22B2-4A5C-B33C-2EBD4DAC13D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21BE2CCF-9747-4435-B7C5-28A62B986CF3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5202,29 +5227,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53C8F835-22B2-4A5C-B33C-2EBD4DAC13D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE7026BE-4F45-4595-B98C-E9D8129D4591}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="6d3c5dfb-1cc0-4432-86cb-2a9d0e8e17b0"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="c83fef03-7e53-47dc-8a06-28f89aa017e1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Sprint 1/USBD04/Inserts/Dataset normalizado.xlsx
+++ b/Sprint 1/USBD04/Inserts/Dataset normalizado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\OneDrive\Documentos\bddad2024\Sprint 1\USBD04\Inserts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandra\Desktop\BDDAD\bddad2024\Sprint 1\USBD04\Inserts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321FB864-6F73-4129-9E02-9CBE090E612D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255674C1-D78F-4C12-B76A-AFA05D4F8101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="700" activeTab="2" xr2:uid="{96054C54-0AC6-4E0E-AB4B-5CA509897BDA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="700" firstSheet="3" activeTab="5" xr2:uid="{96054C54-0AC6-4E0E-AB4B-5CA509897BDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="229">
   <si>
     <t>Name</t>
   </si>
@@ -617,6 +617,123 @@
   </si>
   <si>
     <t>ProductionDate</t>
+  </si>
+  <si>
+    <t>AS12946S22</t>
+  </si>
+  <si>
+    <t>AS12947S22</t>
+  </si>
+  <si>
+    <t>AS12946S20</t>
+  </si>
+  <si>
+    <t>AS12947S20</t>
+  </si>
+  <si>
+    <t>IP12945A01</t>
+  </si>
+  <si>
+    <t>IP12945A02</t>
+  </si>
+  <si>
+    <t>IP12945A03</t>
+  </si>
+  <si>
+    <t>IP12945A04</t>
+  </si>
+  <si>
+    <t>IP12947A01</t>
+  </si>
+  <si>
+    <t>IP12947A02</t>
+  </si>
+  <si>
+    <t>IP12947A03</t>
+  </si>
+  <si>
+    <t>IP12947A04</t>
+  </si>
+  <si>
+    <t>IP12945A32</t>
+  </si>
+  <si>
+    <t>IP12945A33</t>
+  </si>
+  <si>
+    <t>IP12945A34</t>
+  </si>
+  <si>
+    <t>IP12947A32</t>
+  </si>
+  <si>
+    <t>IP12947A33</t>
+  </si>
+  <si>
+    <t>IP12947A34</t>
+  </si>
+  <si>
+    <t>PN94561L67</t>
+  </si>
+  <si>
+    <t>22 cm stainless steel lid</t>
+  </si>
+  <si>
+    <t>3l 20 cm stainless steel pot bottom</t>
+  </si>
+  <si>
+    <t>20 cm stainless steel lid</t>
+  </si>
+  <si>
+    <t>250 mm 5 mm stailess steel disc</t>
+  </si>
+  <si>
+    <t>220 mm pot base phase 1</t>
+  </si>
+  <si>
+    <t>220 mm pot base phase 2</t>
+  </si>
+  <si>
+    <t>220 mm pot base final</t>
+  </si>
+  <si>
+    <t>250 mm 1 mm stailess steel disc</t>
+  </si>
+  <si>
+    <t>220 mm lid pressed</t>
+  </si>
+  <si>
+    <t>220 mm lid polished</t>
+  </si>
+  <si>
+    <t>220 mm lid with handle</t>
+  </si>
+  <si>
+    <t>200 mm pot base phase 1</t>
+  </si>
+  <si>
+    <t>200 mm pot base phase 2</t>
+  </si>
+  <si>
+    <t>200 mm pot base final</t>
+  </si>
+  <si>
+    <t>200 mm lid pressed</t>
+  </si>
+  <si>
+    <t>200 mm lid polished</t>
+  </si>
+  <si>
+    <t>200 mm lid with handle</t>
+  </si>
+  <si>
+    <t>Coolube 2210XP</t>
+  </si>
+  <si>
+    <t>Pro Clear bottoms</t>
+  </si>
+  <si>
+    <t>5l 22 cm stainless steel pot bottom</t>
   </si>
 </sst>
 </file>
@@ -2416,7 +2533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE470C24-4865-4CED-BECB-9AD0BD718C1F}">
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G27" sqref="G27:G39"/>
     </sheetView>
   </sheetViews>
@@ -3141,15 +3258,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70AD2DA-42C9-479D-B8CB-F72A645B2A2D}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -3180,7 +3297,7 @@
         <v>165</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D6" si="0">"INSERT INTO ProductFamily(" &amp; $A$1 &amp; "," &amp; $B$1 &amp; ") VALUES(" &amp; A3 &amp; ", '" &amp; B3 &amp; "');"</f>
+        <f t="shared" ref="D3:D7" si="0">"INSERT INTO ProductFamily(" &amp; $A$1 &amp; "," &amp; $B$1 &amp; ") VALUES(" &amp; A3 &amp; ", '" &amp; B3 &amp; "');"</f>
         <v>INSERT INTO ProductFamily(Id,Name) VALUES(130, 'La Belle pots');</v>
       </c>
     </row>
@@ -3218,6 +3335,18 @@
       <c r="D6" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO ProductFamily(Id,Name) VALUES(146, 'Pro Clear lids');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>147</v>
+      </c>
+      <c r="B7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ProductFamily(Id,Name) VALUES(147, 'Pro Clear bottoms');</v>
       </c>
     </row>
   </sheetData>
@@ -3227,21 +3356,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D15D9EF7-7F05-4929-9267-83A028A1D45D}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="B2:C7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.21875" customWidth="1"/>
     <col min="2" max="2" width="14.5546875" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" customWidth="1"/>
-    <col min="4" max="4" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="35.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>129</v>
       </c>
@@ -3249,13 +3377,10 @@
         <v>139</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -3263,17 +3388,14 @@
         <v>130</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="str">
-        <f>"INSERT INTO Product(" &amp; $A$1 &amp; "," &amp; $B$1 &amp; "," &amp; $C$1 &amp; "," &amp; $D$1 &amp; ") VALUES('" &amp; A2 &amp; "', " &amp; B2 &amp; ", '" &amp; C2 &amp; "', '" &amp; D2 &amp; "');"</f>
-        <v>INSERT INTO Product(Id,ProductFamilyId,Name,Description) VALUES('AS12945T22', 130, 'La Belle 22 5l pot', '5l 22 cm aluminium and teflon non stick pot');</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E2" t="str">
+        <f>"INSERT INTO Product(" &amp; $A$1 &amp; "," &amp; $B$1 &amp; "," &amp; $C$1 &amp; ") VALUES('" &amp; A2 &amp; "', " &amp; B2 &amp; ", '" &amp; C2 &amp; "');"</f>
+        <v>INSERT INTO Product(Id,ProductFamilyId,Description) VALUES('AS12945T22', 130, '5l 22 cm aluminium and teflon non stick pot');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -3281,17 +3403,14 @@
         <v>125</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F8" si="0">"INSERT INTO Product(" &amp; $A$1 &amp; "," &amp; $B$1 &amp; "," &amp; $C$1 &amp; "," &amp; $D$1 &amp; ") VALUES('" &amp; A3 &amp; "', " &amp; B3 &amp; ", '" &amp; C3 &amp; "', '" &amp; D3 &amp; "');"</f>
-        <v>INSERT INTO Product(Id,ProductFamilyId,Name,Description) VALUES('AS12945S22', 125, 'Pro 22 5l pot', '5l 22 cm stainless steel pot');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E12" si="0">"INSERT INTO Product(" &amp; $A$1 &amp; "," &amp; $B$1 &amp; "," &amp; $C$1 &amp; ") VALUES('" &amp; A3 &amp; "', " &amp; B3 &amp; ", '" &amp; C3 &amp; "');"</f>
+        <v>INSERT INTO Product(Id,ProductFamilyId,Description) VALUES('AS12945S22', 125, '5l 22 cm stainless steel pot');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -3299,17 +3418,14 @@
         <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(Id,ProductFamilyId,Name,Description) VALUES('AS12945S20', 125, 'Pro 20 3l pot', '3l 20 cm stainless steel pot');</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Product(Id,ProductFamilyId,Description) VALUES('AS12945S20', 125, '3l 20 cm stainless steel pot');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -3317,17 +3433,14 @@
         <v>125</v>
       </c>
       <c r="C5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D5" t="s">
         <v>163</v>
       </c>
-      <c r="F5" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(Id,ProductFamilyId,Name,Description) VALUES('AS12945S17', 125, 'Pro 17 2l pot', '2l 17 cm stainless steel pot');</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Product(Id,ProductFamilyId,Description) VALUES('AS12945S17', 125, '2l 17 cm stainless steel pot');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>173</v>
       </c>
@@ -3335,17 +3448,14 @@
         <v>132</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
         <v>70</v>
       </c>
-      <c r="F6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(Id,ProductFamilyId,Name,Description) VALUES('AS12945P17', 132, 'Pro 17 2l sauce pan', '2l 17 cm stainless steel souce pan');</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Product(Id,ProductFamilyId,Description) VALUES('AS12945P17', 132, '2l 17 cm stainless steel souce pan');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -3353,17 +3463,14 @@
         <v>145</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" t="s">
         <v>71</v>
       </c>
-      <c r="F7" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(Id,ProductFamilyId,Name,Description) VALUES('AS12945S48', 145, 'Pro 17 lid', '17 cm stainless steel lid');</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Product(Id,ProductFamilyId,Description) VALUES('AS12945S48', 145, '17 cm stainless steel lid');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -3371,14 +3478,71 @@
         <v>146</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" t="s">
         <v>72</v>
       </c>
-      <c r="F8" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(Id,ProductFamilyId,Name,Description) VALUES('AS12945G48', 146, 'Pro Clear 17 lid', '17 cm glass lid');</v>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Product(Id,ProductFamilyId,Description) VALUES('AS12945G48', 146, '17 cm glass lid');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9">
+        <v>147</v>
+      </c>
+      <c r="C9" t="s">
+        <v>228</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Product(Id,ProductFamilyId,Description) VALUES('AS12946S22', 147, '5l 22 cm stainless steel pot bottom');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B10">
+        <v>145</v>
+      </c>
+      <c r="C10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Product(Id,ProductFamilyId,Description) VALUES('AS12947S22', 145, '22 cm stainless steel lid');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B11">
+        <v>147</v>
+      </c>
+      <c r="C11" t="s">
+        <v>210</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Product(Id,ProductFamilyId,Description) VALUES('AS12946S20', 147, '3l 20 cm stainless steel pot bottom');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12">
+        <v>145</v>
+      </c>
+      <c r="C12" t="s">
+        <v>211</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Product(Id,ProductFamilyId,Description) VALUES('AS12947S20', 145, '20 cm stainless steel lid');</v>
       </c>
     </row>
   </sheetData>
@@ -3389,323 +3553,655 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C51F7F7-8394-4DF7-8369-AC46CFCEB4B5}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="str">
-        <f>"INSERT INTO Part(" &amp; $A$1 &amp; ") VALUES('" &amp; A2 &amp; "');"</f>
-        <v>INSERT INTO Part(Id) VALUES('AS12945T22');</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="str">
+        <f>"INSERT INTO Part(" &amp; $A$1 &amp; "," &amp; $B$1 &amp; ") VALUES('" &amp; A2 &amp; "','" &amp; B2 &amp; "');"</f>
+        <v>INSERT INTO Part(Id,Name) VALUES('AS12945T22','La Belle 22 5l pot');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C18" si="0">"INSERT INTO Part(" &amp; $A$1 &amp; ") VALUES('" &amp; A3 &amp; "');"</f>
-        <v>INSERT INTO Part(Id) VALUES('AS12945S22');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="str">
+        <f>"INSERT INTO Part(" &amp; $A$1 &amp; "," &amp; $B$1 &amp; ") VALUES('" &amp; A3 &amp; "','" &amp; B3 &amp; "');"</f>
+        <v>INSERT INTO Part(Id,Name) VALUES('AS12945S22','Pro 22 5l pot');</v>
+      </c>
+      <c r="O3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Part(Id) VALUES('AS12945S20');</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="str">
+        <f>"INSERT INTO Part(" &amp; $A$1 &amp; "," &amp; $B$1 &amp; ") VALUES('" &amp; A4 &amp; "','" &amp; B4 &amp; "');"</f>
+        <v>INSERT INTO Part(Id,Name) VALUES('AS12945S20','Pro 20 3l pot');</v>
+      </c>
+      <c r="O4" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q4" t="str">
+        <f>"INSERT INTO Component(" &amp; $O$3 &amp; ") VALUES('" &amp; O4 &amp; "');"</f>
+        <v>INSERT INTO Component(Id) VALUES('PN12344A21');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Part(Id) VALUES('AS12945S17');</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" t="str">
+        <f>"INSERT INTO Part(" &amp; $A$1 &amp; "," &amp; $B$1 &amp; ") VALUES('" &amp; A5 &amp; "','" &amp; B5 &amp; "');"</f>
+        <v>INSERT INTO Part(Id,Name) VALUES('AS12945S17','Pro 17 2l pot');</v>
+      </c>
+      <c r="O5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" ref="Q5:Q9" si="0">"INSERT INTO Component(" &amp; $O$3 &amp; ") VALUES('" &amp; O5 &amp; "');"</f>
+        <v>INSERT INTO Component(Id) VALUES('PN18544A21');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>173</v>
       </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Part(Id) VALUES('AS12945P17');</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="str">
+        <f>"INSERT INTO Part(" &amp; $A$1 &amp; "," &amp; $B$1 &amp; ") VALUES('" &amp; A6 &amp; "','" &amp; B6 &amp; "');"</f>
+        <v>INSERT INTO Part(Id,Name) VALUES('AS12945P17','Pro 17 2l sauce pan');</v>
+      </c>
+      <c r="O6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Component(Id) VALUES('PN18544C21');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>68</v>
       </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Part(Id) VALUES('AS12945S48');</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" t="str">
+        <f>"INSERT INTO Part(" &amp; $A$1 &amp; "," &amp; $B$1 &amp; ") VALUES('" &amp; A7 &amp; "','" &amp; B7 &amp; "');"</f>
+        <v>INSERT INTO Part(Id,Name) VALUES('AS12945S48','Pro 17 lid');</v>
+      </c>
+      <c r="O7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Component(Id) VALUES('PN18324C54');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>74</v>
       </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Part(Id) VALUES('AS12945G48');</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="str">
+        <f>"INSERT INTO Part(" &amp; $A$1 &amp; "," &amp; $B$1 &amp; ") VALUES('" &amp; A8 &amp; "','" &amp; B8 &amp; "');"</f>
+        <v>INSERT INTO Part(Id,Name) VALUES('AS12945G48','Pro Clear 17 lid');</v>
+      </c>
+      <c r="O8" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Component(Id) VALUES('PN18324C51');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>78</v>
       </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Part(Id) VALUES('PN12344A21');</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" t="str">
+        <f>"INSERT INTO Part(" &amp; $A$1 &amp; "," &amp; $B$1 &amp; ") VALUES('" &amp; A9 &amp; "','" &amp; B9 &amp; "');"</f>
+        <v>INSERT INTO Part(Id,Name) VALUES('PN12344A21','Screw M6 35 mm');</v>
+      </c>
+      <c r="O9" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Component(Id) VALUES('PN18324C91');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" t="str">
+        <f>"INSERT INTO Part(" &amp; $A$1 &amp; "," &amp; $B$1 &amp; ") VALUES('" &amp; A10 &amp; "','" &amp; B10 &amp; "');"</f>
+        <v>INSERT INTO Part(Id,Name) VALUES('PN18544A21','Rivet 6 mm');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" t="str">
+        <f>"INSERT INTO Part(" &amp; $A$1 &amp; "," &amp; $B$1 &amp; ") VALUES('" &amp; A11 &amp; "','" &amp; B11 &amp; "');"</f>
+        <v>INSERT INTO Part(Id,Name) VALUES('PN18544C21','Stainless steel handle model U6');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" t="str">
+        <f>"INSERT INTO Part(" &amp; $A$1 &amp; "," &amp; $B$1 &amp; ") VALUES('" &amp; A12 &amp; "','" &amp; B12 &amp; "');"</f>
+        <v>INSERT INTO Part(Id,Name) VALUES('PN18324C54','Stainless steel handle model R12');</v>
+      </c>
+      <c r="O12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" t="str">
+        <f>"INSERT INTO Part(" &amp; $A$1 &amp; "," &amp; $B$1 &amp; ") VALUES('" &amp; A13 &amp; "','" &amp; B13 &amp; "');"</f>
+        <v>INSERT INTO Part(Id,Name) VALUES('PN18324C51','Stainless steel handle model R11');</v>
+      </c>
+      <c r="O13" t="s">
         <v>85</v>
       </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Part(Id) VALUES('PN52384R50');</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="Q13" t="str">
+        <f>"INSERT INTO RawMaterial(" &amp; $O$12 &amp; ") VALUES('" &amp; O13 &amp; "');"</f>
+        <v>INSERT INTO RawMaterial(Id) VALUES('PN52384R50');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B14" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" t="str">
+        <f>"INSERT INTO Part(" &amp; $A$1 &amp; "," &amp; $B$1 &amp; ") VALUES('" &amp; A14 &amp; "','" &amp; B14 &amp; "');"</f>
+        <v>INSERT INTO Part(Id,Name) VALUES('PN18324C91','Stainless steel handle model S26');</v>
+      </c>
+      <c r="O14" t="s">
         <v>86</v>
       </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Part(Id) VALUES('PN52384R10');</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Part(Id) VALUES('PN18544A21');</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Part(Id) VALUES('PN18544C21');</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Part(Id) VALUES('PN18324C54');</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="Q14" t="str">
+        <f t="shared" ref="Q14:Q17" si="1">"INSERT INTO RawMaterial(" &amp; $O$12 &amp; ") VALUES('" &amp; O14 &amp; "');"</f>
+        <v>INSERT INTO RawMaterial(Id) VALUES('PN52384R10');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>143</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Part(Id) VALUES('PN18324C51');</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" t="str">
+        <f>"INSERT INTO Part(" &amp; $A$1 &amp; "," &amp; $B$1 &amp; ") VALUES('" &amp; A15 &amp; "','" &amp; B15 &amp; "');"</f>
+        <v>INSERT INTO Part(Id,Name) VALUES('PN52384R50','300x300 mm 5mm stainless steel sheet');</v>
+      </c>
+      <c r="O15" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO RawMaterial(Id) VALUES('PN52384R45');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" t="str">
+        <f>"INSERT INTO Part(" &amp; $A$1 &amp; "," &amp; $B$1 &amp; ") VALUES('" &amp; A16 &amp; "','" &amp; B16 &amp; "');"</f>
+        <v>INSERT INTO Part(Id,Name) VALUES('PN52384R10','300x300 mm 1mm stainless steel sheet');</v>
+      </c>
+      <c r="O16" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO RawMaterial(Id) VALUES('PN52384R12');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>169</v>
       </c>
-      <c r="C16" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Part(Id) VALUES('PN52384R45');</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" t="str">
+        <f>"INSERT INTO Part(" &amp; $A$1 &amp; "," &amp; $B$1 &amp; ") VALUES('" &amp; A17 &amp; "','" &amp; B17 &amp; "');"</f>
+        <v>INSERT INTO Part(Id,Name) VALUES('PN52384R45','250x250 mm 5mm stainless steel sheet');</v>
+      </c>
+      <c r="O17" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO RawMaterial(Id) VALUES('PN94561L67');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>171</v>
       </c>
-      <c r="C17" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Part(Id) VALUES('PN52384R12');</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>182</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Part(Id) VALUES('PN18324C91');</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D18" t="str">
+        <f>"INSERT INTO Part(" &amp; $A$1 &amp; "," &amp; $B$1 &amp; ") VALUES('" &amp; A18 &amp; "','" &amp; B18 &amp; "');"</f>
+        <v>INSERT INTO Part(Id,Name) VALUES('PN52384R12','250x250 mm 1mm stainless steel sheet');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19" t="s">
+        <v>228</v>
+      </c>
+      <c r="D19" t="str">
+        <f>"INSERT INTO Part(" &amp; $A$1 &amp; "," &amp; $B$1 &amp; ") VALUES('" &amp; A19 &amp; "','" &amp; B19 &amp; "');"</f>
+        <v>INSERT INTO Part(Id,Name) VALUES('AS12946S22','5l 22 cm stainless steel pot bottom');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>191</v>
+      </c>
+      <c r="B20" t="s">
+        <v>209</v>
+      </c>
+      <c r="D20" t="str">
+        <f>"INSERT INTO Part(" &amp; $A$1 &amp; "," &amp; $B$1 &amp; ") VALUES('" &amp; A20 &amp; "','" &amp; B20 &amp; "');"</f>
+        <v>INSERT INTO Part(Id,Name) VALUES('AS12947S22','22 cm stainless steel lid');</v>
+      </c>
+      <c r="O20" t="s">
         <v>129</v>
       </c>
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="D21" t="str">
-        <f>"INSERT INTO Component(" &amp; $A$20 &amp; "," &amp; $B$20 &amp; ") VALUES('" &amp; A21 &amp; "', '" &amp; B21 &amp; "');"</f>
-        <v>INSERT INTO Component(Id,Name) VALUES('PN12344A21', 'Screw M6 35 mm');</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <f>"INSERT INTO Part(" &amp; $A$1 &amp; "," &amp; $B$1 &amp; ") VALUES('" &amp; A21 &amp; "','" &amp; B21 &amp; "');"</f>
+        <v>INSERT INTO Part(Id,Name) VALUES('AS12946S20','3l 20 cm stainless steel pot bottom');</v>
+      </c>
+      <c r="O21" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q21" t="str">
+        <f>"INSERT INTO IntermediateProduct(" &amp; $O$20 &amp; ") VALUES('" &amp; O21 &amp; "');"</f>
+        <v>INSERT INTO IntermediateProduct(Id) VALUES('IP12945A01');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>193</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>211</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" ref="D22:D26" si="1">"INSERT INTO Component(" &amp; $A$20 &amp; "," &amp; $B$20 &amp; ") VALUES('" &amp; A22 &amp; "', '" &amp; B22 &amp; "');"</f>
-        <v>INSERT INTO Component(Id,Name) VALUES('PN18544A21', 'Rivet 6 mm');</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <f>"INSERT INTO Part(" &amp; $A$1 &amp; "," &amp; $B$1 &amp; ") VALUES('" &amp; A22 &amp; "','" &amp; B22 &amp; "');"</f>
+        <v>INSERT INTO Part(Id,Name) VALUES('AS12947S20','20 cm stainless steel lid');</v>
+      </c>
+      <c r="O22" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" ref="Q22:Q34" si="2">"INSERT INTO IntermediateProduct(" &amp; $O$20 &amp; ") VALUES('" &amp; O22 &amp; "');"</f>
+        <v>INSERT INTO IntermediateProduct(Id) VALUES('IP12945A02');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>194</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>212</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Component(Id,Name) VALUES('PN18544C21', 'Stainless steel handle model U6');</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <f>"INSERT INTO Part(" &amp; $A$1 &amp; "," &amp; $B$1 &amp; ") VALUES('" &amp; A23 &amp; "','" &amp; B23 &amp; "');"</f>
+        <v>INSERT INTO Part(Id,Name) VALUES('IP12945A01','250 mm 5 mm stailess steel disc');</v>
+      </c>
+      <c r="O23" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO IntermediateProduct(Id) VALUES('IP12945A03');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>88</v>
+        <v>195</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>213</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Component(Id,Name) VALUES('PN18324C54', 'Stainless steel handle model R12');</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" ref="D24:D37" si="3">"INSERT INTO Part(" &amp; $A$1 &amp; "," &amp; $B$1 &amp; ") VALUES('" &amp; A24 &amp; "','" &amp; B24 &amp; "');"</f>
+        <v>INSERT INTO Part(Id,Name) VALUES('IP12945A02','220 mm pot base phase 1');</v>
+      </c>
+      <c r="O24" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO IntermediateProduct(Id) VALUES('IP12945A04');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>143</v>
+        <v>196</v>
       </c>
       <c r="B25" t="s">
-        <v>144</v>
+        <v>214</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Component(Id,Name) VALUES('PN18324C51', 'Stainless steel handle model R11');</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Part(Id,Name) VALUES('IP12945A03','220 mm pot base phase 2');</v>
+      </c>
+      <c r="O25" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO IntermediateProduct(Id) VALUES('IP12947A01');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="B26" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Component(Id,Name) VALUES('PN18324C91', 'Stainless steel handle model S26');</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Part(Id,Name) VALUES('IP12945A04','220 mm pot base final');</v>
+      </c>
+      <c r="O26" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO IntermediateProduct(Id) VALUES('IP12947A02');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>198</v>
+      </c>
+      <c r="B27" t="s">
+        <v>216</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Part(Id,Name) VALUES('IP12947A01','250 mm 1 mm stailess steel disc');</v>
+      </c>
+      <c r="O27" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO IntermediateProduct(Id) VALUES('IP12947A03');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>199</v>
+      </c>
+      <c r="B28" t="s">
+        <v>217</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Part(Id,Name) VALUES('IP12947A02','220 mm lid pressed');</v>
+      </c>
+      <c r="O28" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO IntermediateProduct(Id) VALUES('IP12947A04');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>129</v>
+        <v>200</v>
       </c>
       <c r="B29" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Part(Id,Name) VALUES('IP12947A03','220 mm lid polished');</v>
+      </c>
+      <c r="O29" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO IntermediateProduct(Id) VALUES('IP12945A32');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>201</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>219</v>
       </c>
       <c r="D30" t="str">
-        <f>"INSERT INTO RawMaterial(" &amp; $A$29 &amp; "," &amp; $B$29 &amp; ") VALUES('" &amp; A30 &amp; "', '" &amp; B30 &amp; "');"</f>
-        <v>INSERT INTO RawMaterial(Id,Name) VALUES('PN52384R50', '300x300 mm 5mm stainless steel sheet');</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Part(Id,Name) VALUES('IP12947A04','220 mm lid with handle');</v>
+      </c>
+      <c r="O30" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO IntermediateProduct(Id) VALUES('IP12945A33');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>86</v>
+        <v>202</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>220</v>
       </c>
       <c r="D31" t="str">
-        <f>"INSERT INTO RawMaterial(" &amp; $A$29 &amp; "," &amp; $B$29 &amp; ") VALUES('" &amp; A31 &amp; "', '" &amp; B31 &amp; "');"</f>
-        <v>INSERT INTO RawMaterial(Id,Name) VALUES('PN52384R10', '300x300 mm 1mm stainless steel sheet');</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Part(Id,Name) VALUES('IP12945A32','200 mm pot base phase 1');</v>
+      </c>
+      <c r="O31" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO IntermediateProduct(Id) VALUES('IP12945A34');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="B32" t="s">
-        <v>170</v>
+        <v>221</v>
       </c>
       <c r="D32" t="str">
-        <f>"INSERT INTO RawMaterial(" &amp; $A$29 &amp; "," &amp; $B$29 &amp; ") VALUES('" &amp; A32 &amp; "', '" &amp; B32 &amp; "');"</f>
-        <v>INSERT INTO RawMaterial(Id,Name) VALUES('PN52384R45', '250x250 mm 5mm stainless steel sheet');</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Part(Id,Name) VALUES('IP12945A33','200 mm pot base phase 2');</v>
+      </c>
+      <c r="O32" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q32" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO IntermediateProduct(Id) VALUES('IP12947A32');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="B33" t="s">
-        <v>172</v>
+        <v>222</v>
       </c>
       <c r="D33" t="str">
-        <f>"INSERT INTO RawMaterial(" &amp; $A$29 &amp; "," &amp; $B$29 &amp; ") VALUES('" &amp; A33 &amp; "', '" &amp; B33 &amp; "');"</f>
-        <v>INSERT INTO RawMaterial(Id,Name) VALUES('PN52384R12', '250x250 mm 1mm stainless steel sheet');</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Part(Id,Name) VALUES('IP12945A34','200 mm pot base final');</v>
+      </c>
+      <c r="O33" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q33" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO IntermediateProduct(Id) VALUES('IP12947A33');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>205</v>
+      </c>
+      <c r="B34" t="s">
+        <v>223</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Part(Id,Name) VALUES('IP12947A32','200 mm lid pressed');</v>
+      </c>
+      <c r="O34" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q34" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO IntermediateProduct(Id) VALUES('IP12947A34');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>206</v>
+      </c>
+      <c r="B35" t="s">
+        <v>224</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Part(Id,Name) VALUES('IP12947A33','200 mm lid polished');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>207</v>
+      </c>
+      <c r="B36" t="s">
+        <v>225</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Part(Id,Name) VALUES('IP12947A34','200 mm lid with handle');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>208</v>
+      </c>
+      <c r="B37" t="s">
+        <v>226</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Part(Id,Name) VALUES('PN94561L67','Coolube 2210XP');</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E72C923-8516-4798-B5C0-FC81C4C86E27}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:E31"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3715,6 +4211,7 @@
     <col min="4" max="4" width="18.21875" customWidth="1"/>
     <col min="5" max="5" width="10.88671875" customWidth="1"/>
     <col min="10" max="10" width="8.88671875" customWidth="1"/>
+    <col min="15" max="15" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -3839,13 +4336,13 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D17" t="str">
         <f>"INSERT INTO Product_Colour(" &amp; $A$16 &amp; "," &amp; $B$16 &amp; ") VALUES('" &amp; A17 &amp; "', " &amp; B17 &amp; ");"</f>
         <v>INSERT INTO Product_Colour(ProductId,ColourId) VALUES('', );</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>138</v>
       </c>
@@ -3853,7 +4350,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -3865,7 +4362,7 @@
         <v>INSERT INTO Product_Material(ProductId,MaterialId) VALUES('AS12945T22', 1);</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -3873,11 +4370,11 @@
         <v>2</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" ref="D22:D28" si="2">"INSERT INTO Product_Material(" &amp; $A$20 &amp; "," &amp; $B$20 &amp; ") VALUES('" &amp; A22 &amp; "', " &amp; B22 &amp; ");"</f>
+        <f t="shared" ref="D22:D32" si="2">"INSERT INTO Product_Material(" &amp; $A$20 &amp; "," &amp; $B$20 &amp; ") VALUES('" &amp; A22 &amp; "', " &amp; B22 &amp; ");"</f>
         <v>INSERT INTO Product_Material(ProductId,MaterialId) VALUES('AS12945T22', 2);</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -3889,7 +4386,7 @@
         <v>INSERT INTO Product_Material(ProductId,MaterialId) VALUES('AS12945S22', 3);</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -3901,7 +4398,7 @@
         <v>INSERT INTO Product_Material(ProductId,MaterialId) VALUES('AS12945S20', 3);</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3913,7 +4410,7 @@
         <v>INSERT INTO Product_Material(ProductId,MaterialId) VALUES('AS12945S17', 3);</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>68</v>
       </c>
@@ -3925,7 +4422,7 @@
         <v>INSERT INTO Product_Material(ProductId,MaterialId) VALUES('AS12945S48', 3);</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>74</v>
       </c>
@@ -3937,7 +4434,7 @@
         <v>INSERT INTO Product_Material(ProductId,MaterialId) VALUES('AS12945G48', 4);</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>173</v>
       </c>
@@ -3949,200 +4446,185 @@
         <v>INSERT INTO Product_Material(ProductId,MaterialId) VALUES('AS12945P17', 3);</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>190</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Product_Material(ProductId,MaterialId) VALUES('AS12946S22', 3);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>191</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Product_Material(ProductId,MaterialId) VALUES('AS12947S22', 3);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>192</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Product_Material(ProductId,MaterialId) VALUES('AS12946S20', 3);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>193</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Product_Material(ProductId,MaterialId) VALUES('AS12947S20', 3);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>129</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B34" t="s">
         <v>138</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C34" t="s">
         <v>155</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D34" t="s">
         <v>180</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E34" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32">
-        <v>5</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32" t="s">
-        <v>137</v>
-      </c>
-      <c r="G32" t="str">
-        <f>"INSERT INTO Product_Size(" &amp; $A$31 &amp; "," &amp; $B$31 &amp; "," &amp; $C$31 &amp; "," &amp; $D$31 &amp; "," &amp; $E$31 &amp; ") VALUES(" &amp; A32 &amp; ", '" &amp; B32 &amp; "'," &amp; C32 &amp; ", " &amp; D32 &amp; ",'" &amp; E32 &amp; "');"</f>
-        <v>INSERT INTO Product_Size(Id,ProductId,SizeInt,MeasurementUnitId,Description) VALUES(1, 'AS12945T22',5, 2,'NULL');</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>2</v>
-      </c>
-      <c r="B33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33">
-        <v>22</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33" t="s">
-        <v>137</v>
-      </c>
-      <c r="G33" t="str">
-        <f t="shared" ref="G33:G43" si="3">"INSERT INTO Product_Size(" &amp; $A$31 &amp; "," &amp; $B$31 &amp; "," &amp; $C$31 &amp; "," &amp; $D$31 &amp; "," &amp; $E$31 &amp; ") VALUES(" &amp; A33 &amp; ", '" &amp; B33 &amp; "'," &amp; C33 &amp; ", " &amp; D33 &amp; ",'" &amp; E33 &amp; "');"</f>
-        <v>INSERT INTO Product_Size(Id,ProductId,SizeInt,MeasurementUnitId,Description) VALUES(2, 'AS12945T22',22, 1,'NULL');</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>3</v>
-      </c>
-      <c r="B34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34">
-        <v>5</v>
-      </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-      <c r="E34" t="s">
-        <v>137</v>
-      </c>
-      <c r="G34" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO Product_Size(Id,ProductId,SizeInt,MeasurementUnitId,Description) VALUES(3, 'AS12945S22',5, 2,'NULL');</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C35">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" t="s">
         <v>137</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO Product_Size(Id,ProductId,SizeInt,MeasurementUnitId,Description) VALUES(4, 'AS12945S22',22, 1,'NULL');</v>
+        <f>"INSERT INTO Product_Size(" &amp; $A$34 &amp; "," &amp; $B$34 &amp; "," &amp; $C$34 &amp; "," &amp; $D$34 &amp; "," &amp; $E$34 &amp; ") VALUES(" &amp; A35 &amp; ", '" &amp; B35 &amp; "'," &amp; C35 &amp; ", " &amp; D35 &amp; ",'" &amp; E35 &amp; "');"</f>
+        <v>INSERT INTO Product_Size(Id,ProductId,SizeInt,MeasurementUnitId,Description) VALUES(1, 'AS12945T22',5, 2,'NULL');</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36" t="s">
         <v>137</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO Product_Size(Id,ProductId,SizeInt,MeasurementUnitId,Description) VALUES(5, 'AS12945S20',3, 2,'NULL');</v>
+        <f>"INSERT INTO Product_Size(" &amp; $A$34 &amp; "," &amp; $B$34 &amp; "," &amp; $C$34 &amp; "," &amp; $D$34 &amp; "," &amp; $E$34 &amp; ") VALUES(" &amp; A36 &amp; ", '" &amp; B36 &amp; "'," &amp; C36 &amp; ", " &amp; D36 &amp; ",'" &amp; E36 &amp; "');"</f>
+        <v>INSERT INTO Product_Size(Id,ProductId,SizeInt,MeasurementUnitId,Description) VALUES(2, 'AS12945T22',22, 1,'NULL');</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C37">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" t="s">
         <v>137</v>
       </c>
       <c r="G37" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO Product_Size(Id,ProductId,SizeInt,MeasurementUnitId,Description) VALUES(6, 'AS12945S20',20, 1,'NULL');</v>
+        <f>"INSERT INTO Product_Size(" &amp; $A$34 &amp; "," &amp; $B$34 &amp; "," &amp; $C$34 &amp; "," &amp; $D$34 &amp; "," &amp; $E$34 &amp; ") VALUES(" &amp; A37 &amp; ", '" &amp; B37 &amp; "'," &amp; C37 &amp; ", " &amp; D37 &amp; ",'" &amp; E37 &amp; "');"</f>
+        <v>INSERT INTO Product_Size(Id,ProductId,SizeInt,MeasurementUnitId,Description) VALUES(3, 'AS12945S22',5, 2,'NULL');</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38" t="s">
         <v>137</v>
       </c>
       <c r="G38" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO Product_Size(Id,ProductId,SizeInt,MeasurementUnitId,Description) VALUES(7, 'AS12945S17',2, 2,'NULL');</v>
+        <f>"INSERT INTO Product_Size(" &amp; $A$34 &amp; "," &amp; $B$34 &amp; "," &amp; $C$34 &amp; "," &amp; $D$34 &amp; "," &amp; $E$34 &amp; ") VALUES(" &amp; A38 &amp; ", '" &amp; B38 &amp; "'," &amp; C38 &amp; ", " &amp; D38 &amp; ",'" &amp; E38 &amp; "');"</f>
+        <v>INSERT INTO Product_Size(Id,ProductId,SizeInt,MeasurementUnitId,Description) VALUES(4, 'AS12945S22',22, 1,'NULL');</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C39">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39" t="s">
         <v>137</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO Product_Size(Id,ProductId,SizeInt,MeasurementUnitId,Description) VALUES(8, 'AS12945S17',17, 1,'NULL');</v>
+        <f>"INSERT INTO Product_Size(" &amp; $A$34 &amp; "," &amp; $B$34 &amp; "," &amp; $C$34 &amp; "," &amp; $D$34 &amp; "," &amp; $E$34 &amp; ") VALUES(" &amp; A39 &amp; ", '" &amp; B39 &amp; "'," &amp; C39 &amp; ", " &amp; D39 &amp; ",'" &amp; E39 &amp; "');"</f>
+        <v>INSERT INTO Product_Size(Id,ProductId,SizeInt,MeasurementUnitId,Description) VALUES(5, 'AS12945S20',3, 2,'NULL');</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="C40">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -4151,58 +4633,58 @@
         <v>137</v>
       </c>
       <c r="G40" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO Product_Size(Id,ProductId,SizeInt,MeasurementUnitId,Description) VALUES(9, 'AS12945S48',17, 1,'NULL');</v>
+        <f>"INSERT INTO Product_Size(" &amp; $A$34 &amp; "," &amp; $B$34 &amp; "," &amp; $C$34 &amp; "," &amp; $D$34 &amp; "," &amp; $E$34 &amp; ") VALUES(" &amp; A40 &amp; ", '" &amp; B40 &amp; "'," &amp; C40 &amp; ", " &amp; D40 &amp; ",'" &amp; E40 &amp; "');"</f>
+        <v>INSERT INTO Product_Size(Id,ProductId,SizeInt,MeasurementUnitId,Description) VALUES(6, 'AS12945S20',20, 1,'NULL');</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="C41">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41" t="s">
         <v>137</v>
       </c>
       <c r="G41" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO Product_Size(Id,ProductId,SizeInt,MeasurementUnitId,Description) VALUES(10, 'AS12945G48',17, 1,'NULL');</v>
+        <f>"INSERT INTO Product_Size(" &amp; $A$34 &amp; "," &amp; $B$34 &amp; "," &amp; $C$34 &amp; "," &amp; $D$34 &amp; "," &amp; $E$34 &amp; ") VALUES(" &amp; A41 &amp; ", '" &amp; B41 &amp; "'," &amp; C41 &amp; ", " &amp; D41 &amp; ",'" &amp; E41 &amp; "');"</f>
+        <v>INSERT INTO Product_Size(Id,ProductId,SizeInt,MeasurementUnitId,Description) VALUES(7, 'AS12945S17',2, 2,'NULL');</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>173</v>
+        <v>23</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42" t="s">
         <v>137</v>
       </c>
       <c r="G42" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO Product_Size(Id,ProductId,SizeInt,MeasurementUnitId,Description) VALUES(11, 'AS12945P17',2, 2,'NULL');</v>
+        <f>"INSERT INTO Product_Size(" &amp; $A$34 &amp; "," &amp; $B$34 &amp; "," &amp; $C$34 &amp; "," &amp; $D$34 &amp; "," &amp; $E$34 &amp; ") VALUES(" &amp; A42 &amp; ", '" &amp; B42 &amp; "'," &amp; C42 &amp; ", " &amp; D42 &amp; ",'" &amp; E42 &amp; "');"</f>
+        <v>INSERT INTO Product_Size(Id,ProductId,SizeInt,MeasurementUnitId,Description) VALUES(8, 'AS12945S17',17, 1,'NULL');</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>173</v>
+        <v>68</v>
       </c>
       <c r="C43">
         <v>17</v>
@@ -4214,8 +4696,197 @@
         <v>137</v>
       </c>
       <c r="G43" t="str">
+        <f>"INSERT INTO Product_Size(" &amp; $A$34 &amp; "," &amp; $B$34 &amp; "," &amp; $C$34 &amp; "," &amp; $D$34 &amp; "," &amp; $E$34 &amp; ") VALUES(" &amp; A43 &amp; ", '" &amp; B43 &amp; "'," &amp; C43 &amp; ", " &amp; D43 &amp; ",'" &amp; E43 &amp; "');"</f>
+        <v>INSERT INTO Product_Size(Id,ProductId,SizeInt,MeasurementUnitId,Description) VALUES(9, 'AS12945S48',17, 1,'NULL');</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44">
+        <v>17</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>137</v>
+      </c>
+      <c r="G44" t="str">
+        <f>"INSERT INTO Product_Size(" &amp; $A$34 &amp; "," &amp; $B$34 &amp; "," &amp; $C$34 &amp; "," &amp; $D$34 &amp; "," &amp; $E$34 &amp; ") VALUES(" &amp; A44 &amp; ", '" &amp; B44 &amp; "'," &amp; C44 &amp; ", " &amp; D44 &amp; ",'" &amp; E44 &amp; "');"</f>
+        <v>INSERT INTO Product_Size(Id,ProductId,SizeInt,MeasurementUnitId,Description) VALUES(10, 'AS12945G48',17, 1,'NULL');</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>11</v>
+      </c>
+      <c r="B45" t="s">
+        <v>173</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>137</v>
+      </c>
+      <c r="G45" t="str">
+        <f>"INSERT INTO Product_Size(" &amp; $A$34 &amp; "," &amp; $B$34 &amp; "," &amp; $C$34 &amp; "," &amp; $D$34 &amp; "," &amp; $E$34 &amp; ") VALUES(" &amp; A45 &amp; ", '" &amp; B45 &amp; "'," &amp; C45 &amp; ", " &amp; D45 &amp; ",'" &amp; E45 &amp; "');"</f>
+        <v>INSERT INTO Product_Size(Id,ProductId,SizeInt,MeasurementUnitId,Description) VALUES(11, 'AS12945P17',2, 2,'NULL');</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>173</v>
+      </c>
+      <c r="C46">
+        <v>17</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>137</v>
+      </c>
+      <c r="G46" t="str">
+        <f>"INSERT INTO Product_Size(" &amp; $A$34 &amp; "," &amp; $B$34 &amp; "," &amp; $C$34 &amp; "," &amp; $D$34 &amp; "," &amp; $E$34 &amp; ") VALUES(" &amp; A46 &amp; ", '" &amp; B46 &amp; "'," &amp; C46 &amp; ", " &amp; D46 &amp; ",'" &amp; E46 &amp; "');"</f>
+        <v>INSERT INTO Product_Size(Id,ProductId,SizeInt,MeasurementUnitId,Description) VALUES(12, 'AS12945P17',17, 1,'NULL');</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>13</v>
+      </c>
+      <c r="B47" t="s">
+        <v>190</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>137</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" ref="G47:G52" si="3">"INSERT INTO Product_Size(" &amp; $A$34 &amp; "," &amp; $B$34 &amp; "," &amp; $C$34 &amp; "," &amp; $D$34 &amp; "," &amp; $E$34 &amp; ") VALUES(" &amp; A47 &amp; ", '" &amp; B47 &amp; "'," &amp; C47 &amp; ", " &amp; D47 &amp; ",'" &amp; E47 &amp; "');"</f>
+        <v>INSERT INTO Product_Size(Id,ProductId,SizeInt,MeasurementUnitId,Description) VALUES(13, 'AS12946S22',5, 2,'NULL');</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>14</v>
+      </c>
+      <c r="B48" t="s">
+        <v>190</v>
+      </c>
+      <c r="C48">
+        <v>22</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>137</v>
+      </c>
+      <c r="G48" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Product_Size(Id,ProductId,SizeInt,MeasurementUnitId,Description) VALUES(12, 'AS12945P17',17, 1,'NULL');</v>
+        <v>INSERT INTO Product_Size(Id,ProductId,SizeInt,MeasurementUnitId,Description) VALUES(14, 'AS12946S22',22, 1,'NULL');</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>15</v>
+      </c>
+      <c r="B49" t="s">
+        <v>191</v>
+      </c>
+      <c r="C49">
+        <v>22</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>137</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Product_Size(Id,ProductId,SizeInt,MeasurementUnitId,Description) VALUES(15, 'AS12947S22',22, 1,'NULL');</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>16</v>
+      </c>
+      <c r="B50" t="s">
+        <v>192</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>137</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Product_Size(Id,ProductId,SizeInt,MeasurementUnitId,Description) VALUES(16, 'AS12946S20',3, 2,'NULL');</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>17</v>
+      </c>
+      <c r="B51" t="s">
+        <v>192</v>
+      </c>
+      <c r="C51">
+        <v>20</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>137</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Product_Size(Id,ProductId,SizeInt,MeasurementUnitId,Description) VALUES(17, 'AS12946S20',20, 1,'NULL');</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>18</v>
+      </c>
+      <c r="B52" t="s">
+        <v>193</v>
+      </c>
+      <c r="C52">
+        <v>20</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>137</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Product_Size(Id,ProductId,SizeInt,MeasurementUnitId,Description) VALUES(18, 'AS12947S20',20, 1,'NULL');</v>
       </c>
     </row>
   </sheetData>
@@ -4936,23 +5607,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6d3c5dfb-1cc0-4432-86cb-2a9d0e8e17b0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005CAEFE7FC9D8B84EBE55524C48F58D03" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="497854f89e4a3d7bf883e8e815c91d37">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6d3c5dfb-1cc0-4432-86cb-2a9d0e8e17b0" xmlns:ns4="c83fef03-7e53-47dc-8a06-28f89aa017e1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="19b7ffbcacb703e844d38f10494d74a9" ns3:_="" ns4:_="">
     <xsd:import namespace="6d3c5dfb-1cc0-4432-86cb-2a9d0e8e17b0"/>
@@ -5185,32 +5839,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE7026BE-4F45-4595-B98C-E9D8129D4591}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="6d3c5dfb-1cc0-4432-86cb-2a9d0e8e17b0"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="c83fef03-7e53-47dc-8a06-28f89aa017e1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53C8F835-22B2-4A5C-B33C-2EBD4DAC13D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6d3c5dfb-1cc0-4432-86cb-2a9d0e8e17b0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21BE2CCF-9747-4435-B7C5-28A62B986CF3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5227,4 +5873,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53C8F835-22B2-4A5C-B33C-2EBD4DAC13D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE7026BE-4F45-4595-B98C-E9D8129D4591}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="6d3c5dfb-1cc0-4432-86cb-2a9d0e8e17b0"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="c83fef03-7e53-47dc-8a06-28f89aa017e1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>